--- a/dash.xlsx
+++ b/dash.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C5F69-EE2B-474E-A64B-FAD0115A4CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C4E674-3E0E-4C4C-AF22-6333121E8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -49,14 +49,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B6EE4267-7815-4FC3-A192-AA451A573D99}" sourceFile="C:\Users\91921\Desktop\Test data.xlsx" keepAlive="1" name="Test data" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{B6EE4267-7815-4FC3-A192-AA451A573D99}" sourceFile="C:\Users\91921\Desktop\Test data.xlsx" keepAlive="1" name="Test data" type="5" refreshedVersion="8" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=C:\Users\91921\Desktop\Test data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="data$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Row Labels</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Round Neck-Potter-Purple-14XL-Purple</t>
+  </si>
+  <si>
+    <t>Round Neck-Potter-Purple-15XL-Purple</t>
   </si>
 </sst>
 </file>
@@ -477,9 +480,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$30</c:f>
+              <c:f>pivot!$A$8:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
@@ -548,16 +551,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Round Neck-Potter-Purple-14XL-Purple</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Round Neck-Potter-Purple-15XL-Purple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$30</c:f>
+              <c:f>pivot!$B$8:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>641.9</c:v>
                 </c:pt>
@@ -626,6 +632,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1498,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="91921" refreshedDate="44766.560928356485" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.847668865739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
@@ -1498,7 +1507,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="26">
         <s v="Shirts-Trevor-6XL-White"/>
         <s v="Tracks-Berlin-Navy-5XL-Navy Blue"/>
         <s v="Henley-Theron-4XL-Grey"/>
@@ -1522,12 +1531,13 @@
         <s v="Round Neck-Potter-Purple-12XL-Purple"/>
         <s v="Round Neck-Potter-Purple-13XL-Purple"/>
         <s v="Round Neck-Potter-Purple-14XL-Purple"/>
+        <s v="Round Neck-Potter-Purple-15XL-Purple"/>
         <m u="1"/>
         <s v="Round Neck-Potter-Purple-7XL-Purple" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Product SKU Code" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800000002114" maxValue="3800000006932" count="22">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800000002114" maxValue="3800000006932" count="23">
         <n v="3800000006634"/>
         <n v="3800000005840"/>
         <n v="3800000002114"/>
@@ -1550,6 +1560,7 @@
         <n v="3800000005703"/>
         <n v="3800000005704"/>
         <n v="3800000005705"/>
+        <n v="3800000005722"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -1558,7 +1569,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="927.62" count="17">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="927.62" count="18">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1576,6 +1587,7 @@
         <n v="450"/>
         <n v="1"/>
         <n v="451"/>
+        <n v="675"/>
       </sharedItems>
     </cacheField>
     <cacheField name="F6" numFmtId="0">
@@ -1623,7 +1635,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1938,6 +1950,20 @@
     <x v="21"/>
     <x v="0"/>
     <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1950,12 +1976,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="A7:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
+      <items count="27">
         <item x="2"/>
         <item x="10"/>
         <item x="13"/>
@@ -1964,7 +1990,7 @@
         <item x="14"/>
         <item x="16"/>
         <item x="15"/>
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="17"/>
         <item x="7"/>
         <item x="8"/>
@@ -1975,17 +2001,18 @@
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="23">
+      <items count="24">
         <item x="2"/>
         <item x="15"/>
         <item x="6"/>
@@ -1999,6 +2026,7 @@
         <item x="20"/>
         <item x="21"/>
         <item x="14"/>
+        <item x="22"/>
         <item x="1"/>
         <item x="13"/>
         <item x="10"/>
@@ -2024,7 +2052,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
@@ -2094,6 +2122,9 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="25"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -2158,7 +2189,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="134459092">
-      <items count="22">
+      <items count="23">
         <i x="2" s="1"/>
         <i x="15" s="1"/>
         <i x="6" s="1"/>
@@ -2172,6 +2203,7 @@
         <i x="20" s="1"/>
         <i x="21" s="1"/>
         <i x="14" s="1"/>
+        <i x="22" s="1"/>
         <i x="1" s="1"/>
         <i x="13" s="1"/>
         <i x="10" s="1"/>
@@ -2490,7 +2522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B30"/>
+  <dimension ref="A7:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2692,6 +2724,14 @@
       </c>
       <c r="B30" s="3">
         <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
